--- a/Project-Management-Sample-Data.xlsx
+++ b/Project-Management-Sample-Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Music\Excel Data for Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\complete pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD8F0A-8B7C-4098-8505-230CA176550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE120CA2-B4E2-4FC9-9B81-FB00098FDFE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="112">
   <si>
     <t>Excel Sample Data</t>
   </si>
@@ -377,8 +377,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,27 +839,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC7BEC1-BD91-4F4F-8985-8014BC582418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="18" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="18" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="18" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="18" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="18" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="18" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="18" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="18" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="18" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="18" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="18" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="18" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="18" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="18" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="18" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="18" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="18" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="18" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="18" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="18" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="18" customHeight="1">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="18" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="18" customHeight="1">
       <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="18" customHeight="1">
       <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="18" customHeight="1">
       <c r="B35" s="5" t="s">
         <v>73</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="18" customHeight="1">
       <c r="B36" s="5" t="s">
         <v>73</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="18" customHeight="1">
       <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="18" customHeight="1">
       <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="18" customHeight="1">
       <c r="B39" s="5" t="s">
         <v>80</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="18" customHeight="1">
       <c r="B40" s="5" t="s">
         <v>80</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="18" customHeight="1">
       <c r="B41" s="5" t="s">
         <v>86</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="18" customHeight="1">
       <c r="B42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="18" customHeight="1">
       <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="18" customHeight="1">
       <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="18" customHeight="1">
       <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="18" customHeight="1">
       <c r="B46" s="5" t="s">
         <v>93</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="18" customHeight="1">
       <c r="B47" s="5" t="s">
         <v>100</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="18" customHeight="1">
       <c r="B48" s="5" t="s">
         <v>100</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="18" customHeight="1">
       <c r="B49" s="5" t="s">
         <v>100</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="18" customHeight="1">
       <c r="B50" s="5" t="s">
         <v>107</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="18" customHeight="1">
       <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="18" customHeight="1">
       <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
@@ -1959,6 +1959,1218 @@
         <v>45372</v>
       </c>
       <c r="H52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" ht="15.6">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="14.4">
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45292</v>
+      </c>
+      <c r="G4" s="5">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45305</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="14.4">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45305</v>
+      </c>
+      <c r="G5" s="5">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45319</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(C4:C49,K5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="14.4">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45319</v>
+      </c>
+      <c r="G6" s="5">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6">
+        <v>45341</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L19" si="0">COUNTIF(C5:C50,K6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="14.4">
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45340</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6">
+        <v>45365</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="14.4">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45293</v>
+      </c>
+      <c r="G8" s="5">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45311</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="14.4">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45311</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <v>45321</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="14.4">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45326</v>
+      </c>
+      <c r="G10" s="5">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45351</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="14.4">
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45323</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22</v>
+      </c>
+      <c r="H11" s="6">
+        <v>45345</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="14.4">
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45346</v>
+      </c>
+      <c r="G12" s="5">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45371</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="14.4">
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45372</v>
+      </c>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="14.4">
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45324</v>
+      </c>
+      <c r="G14" s="5">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45346</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="14.4">
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45335</v>
+      </c>
+      <c r="G15" s="5">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45331</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="14.4">
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45370</v>
+      </c>
+      <c r="G16" s="5">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45395</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="14.4">
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45293</v>
+      </c>
+      <c r="G17" s="5">
+        <v>23</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45316</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="14.4">
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45317</v>
+      </c>
+      <c r="G18" s="5">
+        <v>32</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45349</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="14.4">
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45350</v>
+      </c>
+      <c r="G19" s="5">
+        <v>27</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45377</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="14.4">
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45293</v>
+      </c>
+      <c r="G20" s="5">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45329</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="14.4">
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45330</v>
+      </c>
+      <c r="G21" s="5">
+        <v>34</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45364</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="14.4">
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45365</v>
+      </c>
+      <c r="G22" s="5">
+        <v>30</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45395</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="14.4">
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45294</v>
+      </c>
+      <c r="G23" s="5">
+        <v>47</v>
+      </c>
+      <c r="H23" s="6">
+        <v>45341</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="14.4">
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45339</v>
+      </c>
+      <c r="G24" s="5">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6">
+        <v>45366</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="14.4">
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45365</v>
+      </c>
+      <c r="G25" s="5">
+        <v>22</v>
+      </c>
+      <c r="H25" s="6">
+        <v>45387</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="14.4">
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45294</v>
+      </c>
+      <c r="G26" s="5">
+        <v>60</v>
+      </c>
+      <c r="H26" s="6">
+        <v>45354</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="14.4">
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45297</v>
+      </c>
+      <c r="G27" s="5">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6">
+        <v>45317</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="14.4">
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45325</v>
+      </c>
+      <c r="G28" s="5">
+        <v>35</v>
+      </c>
+      <c r="H28" s="6">
+        <v>45360</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="14.4">
+      <c r="C29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45292</v>
+      </c>
+      <c r="G29" s="5">
+        <v>25</v>
+      </c>
+      <c r="H29" s="6">
+        <v>45317</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="14.4">
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45318</v>
+      </c>
+      <c r="G30" s="5">
+        <v>31</v>
+      </c>
+      <c r="H30" s="6">
+        <v>45349</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="14.4">
+      <c r="C31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45353</v>
+      </c>
+      <c r="G31" s="5">
+        <v>22</v>
+      </c>
+      <c r="H31" s="6">
+        <v>45375</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="14.4">
+      <c r="C32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45294</v>
+      </c>
+      <c r="G32" s="5">
+        <v>30</v>
+      </c>
+      <c r="H32" s="6">
+        <v>45324</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="14.4">
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45325</v>
+      </c>
+      <c r="G33" s="5">
+        <v>25</v>
+      </c>
+      <c r="H33" s="6">
+        <v>45350</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="14.4">
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45351</v>
+      </c>
+      <c r="G34" s="5">
+        <v>20</v>
+      </c>
+      <c r="H34" s="6">
+        <v>45371</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="14.4">
+      <c r="C35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45293</v>
+      </c>
+      <c r="G35" s="5">
+        <v>35</v>
+      </c>
+      <c r="H35" s="6">
+        <v>45328</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="14.4">
+      <c r="C36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45324</v>
+      </c>
+      <c r="G36" s="5">
+        <v>32</v>
+      </c>
+      <c r="H36" s="6">
+        <v>45356</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="14.4">
+      <c r="C37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45357</v>
+      </c>
+      <c r="G37" s="5">
+        <v>25</v>
+      </c>
+      <c r="H37" s="6">
+        <v>45382</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="14.4">
+      <c r="C38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45295</v>
+      </c>
+      <c r="G38" s="5">
+        <v>27</v>
+      </c>
+      <c r="H38" s="6">
+        <v>45322</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="14.4">
+      <c r="C39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45319</v>
+      </c>
+      <c r="G39" s="5">
+        <v>30</v>
+      </c>
+      <c r="H39" s="6">
+        <v>45349</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="14.4">
+      <c r="C40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="6">
+        <v>45350</v>
+      </c>
+      <c r="G40" s="5">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6">
+        <v>45372</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="14.4">
+      <c r="C41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45294</v>
+      </c>
+      <c r="G41" s="5">
+        <v>25</v>
+      </c>
+      <c r="H41" s="6">
+        <v>45319</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="14.4">
+      <c r="C42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="6">
+        <v>45325</v>
+      </c>
+      <c r="G42" s="5">
+        <v>20</v>
+      </c>
+      <c r="H42" s="6">
+        <v>45345</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="14.4">
+      <c r="C43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45346</v>
+      </c>
+      <c r="G43" s="5">
+        <v>35</v>
+      </c>
+      <c r="H43" s="6">
+        <v>45381</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="14.4">
+      <c r="C44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45294</v>
+      </c>
+      <c r="G44" s="5">
+        <v>25</v>
+      </c>
+      <c r="H44" s="6">
+        <v>45319</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="14.4">
+      <c r="C45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="6">
+        <v>45320</v>
+      </c>
+      <c r="G45" s="5">
+        <v>30</v>
+      </c>
+      <c r="H45" s="6">
+        <v>45350</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="14.4">
+      <c r="C46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="6">
+        <v>45380</v>
+      </c>
+      <c r="G46" s="5">
+        <v>20</v>
+      </c>
+      <c r="H46" s="6">
+        <v>45400</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="14.4">
+      <c r="C47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45293</v>
+      </c>
+      <c r="G47" s="5">
+        <v>25</v>
+      </c>
+      <c r="H47" s="6">
+        <v>45318</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="14.4">
+      <c r="C48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45324</v>
+      </c>
+      <c r="G48" s="5">
+        <v>22</v>
+      </c>
+      <c r="H48" s="6">
+        <v>45346</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="14.4">
+      <c r="C49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45345</v>
+      </c>
+      <c r="G49" s="5">
+        <v>27</v>
+      </c>
+      <c r="H49" s="6">
+        <v>45372</v>
+      </c>
+      <c r="I49" s="7">
         <v>0</v>
       </c>
     </row>
